--- a/biology/Botanique/Prix_Paulée_de_Meursault/Prix_Paulée_de_Meursault.xlsx
+++ b/biology/Botanique/Prix_Paulée_de_Meursault/Prix_Paulée_de_Meursault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Paul%C3%A9e_de_Meursault</t>
+          <t>Prix_Paulée_de_Meursault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Paulée de Meursault est un prix littéraire créé en 1932.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Paul%C3%A9e_de_Meursault</t>
+          <t>Prix_Paulée_de_Meursault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décerné par le maire de Meursault chaque année, le quatrième lundi de novembre, au château de Meursault à l'occasion de la « paulée » — repas de fête qui marque habituellement la fin des Vendanges et qui conclut la vente des vins des hospices de Beaune[1] —, le prix est de 100 bouteilles de vin de l'appellation d'origine contrôlée Meursault, offertes chaque année par un viticulteur différent[2].
-Ont notamment été couronnés : Colette, Jacques de Lacretelle, Gaston Roupnel, Marie Noël, Maurice Druon, Paul Guth, Hervé Bazin, etc.[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décerné par le maire de Meursault chaque année, le quatrième lundi de novembre, au château de Meursault à l'occasion de la « paulée » — repas de fête qui marque habituellement la fin des Vendanges et qui conclut la vente des vins des hospices de Beaune —, le prix est de 100 bouteilles de vin de l'appellation d'origine contrôlée Meursault, offertes chaque année par un viticulteur différent.
+Ont notamment été couronnés : Colette, Jacques de Lacretelle, Gaston Roupnel, Marie Noël, Maurice Druon, Paul Guth, Hervé Bazin, etc..
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_Paul%C3%A9e_de_Meursault</t>
+          <t>Prix_Paulée_de_Meursault</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1932 : Charles Silvestre
@@ -617,14 +633,14 @@
 2011 : Jean-Robert Pitte
 2012 : Patrick de Carolis
 2013 : Michel Serres
-2014 : Gonzague Saint Bris[3]
-2015 : Jean-Christophe Rufin[3]
-2016 : François Busnel[4]
+2014 : Gonzague Saint Bris
+2015 : Jean-Christophe Rufin
+2016 : François Busnel
 2017 : Philippe Claudel
 2018 : Irène Frain
 2019 : Michael Edwards
 2020 : événement annulé
-2021 : Frédéric Beigbeder[5]
+2021 : Frédéric Beigbeder
 2022 : Sylvain Tesson
 </t>
         </is>
